--- a/ilm.xlsx
+++ b/ilm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UT\git\UT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0917FF7-DBE4-47B9-AAAE-5670265252B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2F6740-56D3-4ECE-B95A-11B2AC77EC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Outside Temperature</t>
   </si>
@@ -71,57 +71,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>18.3C</t>
-  </si>
-  <si>
-    <t>18.5C</t>
-  </si>
-  <si>
-    <t>16.0C</t>
-  </si>
-  <si>
-    <t>86%</t>
-  </si>
-  <si>
-    <t>1003.4 mbar (1.0)</t>
-  </si>
-  <si>
-    <t>0.5 m/s ESE (121)</t>
-  </si>
-  <si>
-    <t>0.0 mm/h</t>
-  </si>
-  <si>
-    <t>1.0 mm</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>0.0 mm</t>
-  </si>
-  <si>
-    <t>274 W/m2</t>
-  </si>
-  <si>
-    <t>23.0C</t>
-  </si>
-  <si>
-    <t>53%</t>
-  </si>
-  <si>
-    <t>0.632</t>
-  </si>
-  <si>
-    <t>12:21</t>
-  </si>
-  <si>
-    <t>05-07</t>
-  </si>
-  <si>
-    <t>12:22</t>
   </si>
 </sst>
 </file>
@@ -170,42 +119,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -265,22 +184,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -566,267 +483,171 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.9296875" customWidth="1"/>
-    <col min="6" max="6" width="16.53125" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="30.265625" customWidth="1"/>
-    <col min="9" max="9" width="31.06640625" customWidth="1"/>
+    <col min="1" max="1" width="20.265625" customWidth="1"/>
+    <col min="2" max="2" width="10.86328125" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" customWidth="1"/>
+    <col min="4" max="4" width="9.53125" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.796875" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.86328125" customWidth="1"/>
+    <col min="15" max="15" width="9.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="2"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>32</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>32</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="6"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ilm.xlsx
+++ b/ilm.xlsx
@@ -1,119 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UT\git\UT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2F6740-56D3-4ECE-B95A-11B2AC77EC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Outside Temperature</t>
-  </si>
-  <si>
-    <t>Heat Index</t>
-  </si>
-  <si>
-    <t>Wind Chill</t>
-  </si>
-  <si>
-    <t>Dew Point</t>
-  </si>
-  <si>
-    <t>Humidity</t>
-  </si>
-  <si>
-    <t>Barometer</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>Rain Rate</t>
-  </si>
-  <si>
-    <t>Rain Today</t>
-  </si>
-  <si>
-    <t>UV Index</t>
-  </si>
-  <si>
-    <t>ET</t>
-  </si>
-  <si>
-    <t>Radiation</t>
-  </si>
-  <si>
-    <t>Inside Temperature</t>
-  </si>
-  <si>
-    <t>Inside Humidity</t>
-  </si>
-  <si>
-    <t>Elektrihind</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -177,43 +116,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -479,175 +477,279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.265625" customWidth="1"/>
-    <col min="2" max="2" width="10.86328125" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" customWidth="1"/>
-    <col min="4" max="4" width="9.53125" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.796875" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.86328125" customWidth="1"/>
-    <col min="15" max="15" width="9.73046875" customWidth="1"/>
+    <col width="20.265625" customWidth="1" style="6" min="1" max="1"/>
+    <col width="10.86328125" customWidth="1" style="6" min="2" max="2"/>
+    <col width="10.73046875" customWidth="1" style="6" min="3" max="3"/>
+    <col width="9.53125" customWidth="1" style="6" min="4" max="4"/>
+    <col width="12.33203125" customWidth="1" style="6" min="6" max="6"/>
+    <col width="12.3984375" customWidth="1" style="6" min="7" max="7"/>
+    <col width="17.6640625" customWidth="1" style="6" min="8" max="8"/>
+    <col width="18.796875" customWidth="1" style="6" min="9" max="9"/>
+    <col width="19.33203125" customWidth="1" style="6" min="13" max="13"/>
+    <col width="13.86328125" customWidth="1" style="6" min="14" max="14"/>
+    <col width="9.73046875" customWidth="1" style="6" min="15" max="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2"/>
-      <c r="T1" s="1"/>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>Outside Temperature</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Heat Index</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>Wind Chill</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Dew Point</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>Humidity</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>Barometer</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>Rain Rate</t>
+        </is>
+      </c>
+      <c r="I1" s="7" t="inlineStr">
+        <is>
+          <t>Rain Today</t>
+        </is>
+      </c>
+      <c r="J1" s="7" t="inlineStr">
+        <is>
+          <t>UV Index</t>
+        </is>
+      </c>
+      <c r="K1" s="7" t="inlineStr">
+        <is>
+          <t>ET</t>
+        </is>
+      </c>
+      <c r="L1" s="7" t="inlineStr">
+        <is>
+          <t>Radiation</t>
+        </is>
+      </c>
+      <c r="M1" s="7" t="inlineStr">
+        <is>
+          <t>Inside Temperature</t>
+        </is>
+      </c>
+      <c r="N1" s="7" t="inlineStr">
+        <is>
+          <t>Inside Humidity</t>
+        </is>
+      </c>
+      <c r="O1" s="8" t="inlineStr">
+        <is>
+          <t>Elektrihind</t>
+        </is>
+      </c>
+      <c r="P1" s="7" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="Q1" s="7" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="n"/>
+      <c r="T1" s="1" t="n"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="6"/>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>16.8C</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>16.7C</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>16.8C</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>13.8C</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>1007.8 mbar (1.2)</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>0.7 m/s SE (145)</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>4.3 mm</t>
+        </is>
+      </c>
+      <c r="J2" s="5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K2" s="5" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L2" s="5" t="inlineStr">
+        <is>
+          <t>146 W/m2</t>
+        </is>
+      </c>
+      <c r="M2" s="5" t="inlineStr">
+        <is>
+          <t>23.9C</t>
+        </is>
+      </c>
+      <c r="N2" s="5" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="O2" s="5" t="inlineStr">
+        <is>
+          <t>-0.003</t>
+        </is>
+      </c>
+      <c r="P2" s="5" t="inlineStr">
+        <is>
+          <t>13:34</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="6"/>
+    <row r="3">
+      <c r="A3" s="5" t="n"/>
+      <c r="B3" s="5" t="n"/>
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="5" t="n"/>
+      <c r="E3" s="5" t="n"/>
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
+      <c r="I3" s="5" t="n"/>
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="5" t="n"/>
+      <c r="L3" s="5" t="n"/>
+      <c r="M3" s="5" t="n"/>
+      <c r="N3" s="5" t="n"/>
+      <c r="O3" s="5" t="n"/>
+      <c r="P3" s="5" t="n"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="6"/>
+    <row r="4">
+      <c r="A4" s="5" t="n"/>
+      <c r="B4" s="5" t="n"/>
+      <c r="C4" s="5" t="n"/>
+      <c r="D4" s="5" t="n"/>
+      <c r="E4" s="5" t="n"/>
+      <c r="F4" s="5" t="n"/>
+      <c r="G4" s="5" t="n"/>
+      <c r="H4" s="5" t="n"/>
+      <c r="I4" s="5" t="n"/>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="5" t="n"/>
+      <c r="L4" s="5" t="n"/>
+      <c r="M4" s="5" t="n"/>
+      <c r="N4" s="5" t="n"/>
+      <c r="O4" s="5" t="n"/>
+      <c r="P4" s="5" t="n"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+    <row r="6">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="3" t="n"/>
+      <c r="M6" s="3" t="n"/>
+      <c r="N6" s="3" t="n"/>
+      <c r="O6" s="3" t="n"/>
+      <c r="P6" s="3" t="n"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
+    <row r="7">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="4" t="n"/>
+      <c r="H7" s="4" t="n"/>
+      <c r="I7" s="4" t="n"/>
+      <c r="J7" s="4" t="n"/>
+      <c r="K7" s="4" t="n"/>
+      <c r="L7" s="4" t="n"/>
+      <c r="M7" s="4" t="n"/>
+      <c r="N7" s="4" t="n"/>
+      <c r="O7" s="4" t="n"/>
+      <c r="P7" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ilm.xlsx
+++ b/ilm.xlsx
@@ -680,40 +680,178 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n"/>
-      <c r="B3" s="5" t="n"/>
-      <c r="C3" s="5" t="n"/>
-      <c r="D3" s="5" t="n"/>
-      <c r="E3" s="5" t="n"/>
-      <c r="F3" s="5" t="n"/>
-      <c r="G3" s="5" t="n"/>
-      <c r="H3" s="5" t="n"/>
-      <c r="I3" s="5" t="n"/>
-      <c r="J3" s="5" t="n"/>
-      <c r="K3" s="5" t="n"/>
-      <c r="L3" s="5" t="n"/>
-      <c r="M3" s="5" t="n"/>
-      <c r="N3" s="5" t="n"/>
-      <c r="O3" s="5" t="n"/>
-      <c r="P3" s="5" t="n"/>
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>15.3C</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>15.3C</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>15.3C</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>14.3C</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>1008.5 mbar (2.1)</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>0.0 m/s N/A (   N/A)</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>90 W/m2</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
+        <is>
+          <t>24.2C</t>
+        </is>
+      </c>
+      <c r="N3" s="5" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="O3" s="5" t="inlineStr">
+        <is>
+          <t>-0.012</t>
+        </is>
+      </c>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>14:18</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n"/>
-      <c r="B4" s="5" t="n"/>
-      <c r="C4" s="5" t="n"/>
-      <c r="D4" s="5" t="n"/>
-      <c r="E4" s="5" t="n"/>
-      <c r="F4" s="5" t="n"/>
-      <c r="G4" s="5" t="n"/>
-      <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="n"/>
-      <c r="J4" s="5" t="n"/>
-      <c r="K4" s="5" t="n"/>
-      <c r="L4" s="5" t="n"/>
-      <c r="M4" s="5" t="n"/>
-      <c r="N4" s="5" t="n"/>
-      <c r="O4" s="5" t="n"/>
-      <c r="P4" s="5" t="n"/>
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>15.3C</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>15.3C</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>15.3C</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>14.3C</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>1008.5 mbar (2.1)</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>0.0 m/s N/A (   N/A)</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>90 W/m2</t>
+        </is>
+      </c>
+      <c r="M4" s="5" t="inlineStr">
+        <is>
+          <t>24.2C</t>
+        </is>
+      </c>
+      <c r="N4" s="5" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="O4" s="5" t="inlineStr">
+        <is>
+          <t>-0.012</t>
+        </is>
+      </c>
+      <c r="P4" s="5" t="inlineStr">
+        <is>
+          <t>14:20</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n"/>

--- a/ilm.xlsx
+++ b/ilm.xlsx
@@ -1,119 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UT\git\UT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586C07DE-50C1-47F4-B6F0-78BDFF8F69FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="21600" windowHeight="11422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1103" yWindow="1103" windowWidth="21600" windowHeight="11422" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Outside Temperature</t>
-  </si>
-  <si>
-    <t>Heat Index</t>
-  </si>
-  <si>
-    <t>Wind Chill</t>
-  </si>
-  <si>
-    <t>Dew Point</t>
-  </si>
-  <si>
-    <t>Humidity</t>
-  </si>
-  <si>
-    <t>Barometer</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>Rain Rate</t>
-  </si>
-  <si>
-    <t>Rain Today</t>
-  </si>
-  <si>
-    <t>UV Index</t>
-  </si>
-  <si>
-    <t>ET</t>
-  </si>
-  <si>
-    <t>Radiation</t>
-  </si>
-  <si>
-    <t>Inside Temperature</t>
-  </si>
-  <si>
-    <t>Inside Humidity</t>
-  </si>
-  <si>
-    <t>Elektrihind</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -147,43 +86,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -449,212 +447,366 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="N9" sqref="N9:N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.265625" customWidth="1"/>
-    <col min="2" max="2" width="10.86328125" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" customWidth="1"/>
-    <col min="4" max="4" width="9.53125" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.796875" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.86328125" customWidth="1"/>
-    <col min="15" max="15" width="9.73046875" customWidth="1"/>
+    <col width="20.265625" customWidth="1" style="7" min="1" max="1"/>
+    <col width="10.86328125" customWidth="1" style="7" min="2" max="2"/>
+    <col width="10.73046875" customWidth="1" style="7" min="3" max="3"/>
+    <col width="9.53125" customWidth="1" style="7" min="4" max="4"/>
+    <col width="12.33203125" customWidth="1" style="7" min="6" max="6"/>
+    <col width="12.3984375" customWidth="1" style="7" min="7" max="7"/>
+    <col width="17.6640625" customWidth="1" style="7" min="8" max="8"/>
+    <col width="18.796875" customWidth="1" style="7" min="9" max="9"/>
+    <col width="19.33203125" customWidth="1" style="7" min="13" max="13"/>
+    <col width="13.86328125" customWidth="1" style="7" min="14" max="14"/>
+    <col width="9.73046875" customWidth="1" style="7" min="15" max="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="7"/>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Outside Temperature</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Heat Index</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Wind Chill</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Dew Point</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Humidity</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Barometer</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>Rain Rate</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>Rain Today</t>
+        </is>
+      </c>
+      <c r="J1" s="4" t="inlineStr">
+        <is>
+          <t>UV Index</t>
+        </is>
+      </c>
+      <c r="K1" s="4" t="inlineStr">
+        <is>
+          <t>ET</t>
+        </is>
+      </c>
+      <c r="L1" s="4" t="inlineStr">
+        <is>
+          <t>Radiation</t>
+        </is>
+      </c>
+      <c r="M1" s="4" t="inlineStr">
+        <is>
+          <t>Inside Temperature</t>
+        </is>
+      </c>
+      <c r="N1" s="4" t="inlineStr">
+        <is>
+          <t>Inside Humidity</t>
+        </is>
+      </c>
+      <c r="O1" s="5" t="inlineStr">
+        <is>
+          <t>Elektrihind</t>
+        </is>
+      </c>
+      <c r="P1" s="4" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="Q1" s="4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="R1" s="6" t="n"/>
+      <c r="T1" s="8" t="n"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
+    <row r="2">
+      <c r="A2" s="3" t="n"/>
+      <c r="B2" s="3" t="n"/>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="n"/>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="n"/>
+      <c r="M2" s="3" t="n"/>
+      <c r="N2" s="3" t="n"/>
+      <c r="O2" s="3" t="n"/>
+      <c r="P2" s="3" t="n"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
+    <row r="3">
+      <c r="A3" s="3" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
+      <c r="M3" s="3" t="n"/>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="3" t="n"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
+    <row r="4">
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="n"/>
+      <c r="M4" s="3" t="n"/>
+      <c r="N4" s="3" t="n"/>
+      <c r="O4" s="3" t="n"/>
+      <c r="P4" s="3" t="n"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>15.0C</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>15.0C</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15.0C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.9C</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1008.3 mbar (1.7)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1 m/s E (89)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>104 W/m2</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>24.2C</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-0.012</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>15.1C</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>15.1C</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>15.1C</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>14.0C</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>1008.4 mbar (2.0)</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>0.0 m/s ESE (116)</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>100 W/m2</t>
+        </is>
+      </c>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>24.2C</t>
+        </is>
+      </c>
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
+          <t>-0.012</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>14:35</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
+    <row r="7">
+      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
+      <c r="L7" s="2" t="n"/>
+      <c r="M7" s="2" t="n"/>
+      <c r="N7" s="2" t="n"/>
+      <c r="O7" s="2" t="n"/>
+      <c r="P7" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ilm.xlsx
+++ b/ilm.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:Q3"/>
@@ -909,23 +909,1310 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>15.2C</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>15.2C</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15.2C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.9C</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1008.5 mbar (2.1)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2 m/s ESE (106)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>199 W/m2</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>24.1C</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>-0.012</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="n"/>
-      <c r="M7" s="2" t="n"/>
-      <c r="N7" s="2" t="n"/>
-      <c r="O7" s="2" t="n"/>
-      <c r="P7" s="2" t="n"/>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>15.7C</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>15.8C</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15.7C</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14.3C</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1008.5 mbar (1.7)</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.3 m/s SE (134)</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>184 W/m2</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>24.0C</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-0.012</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>14:50</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>16.3C</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>16.3C</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16.3C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.6C</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1008.4 mbar (1.4)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2 m/s ESE (115)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>143 W/m2</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>23.9C</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>-0.012</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>14:55</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>16.4C</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>16.4C</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16.4C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.3C</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1008.5 mbar (1.4)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3 m/s NE (52)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>145 W/m2</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>23.8C</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-0.001</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>16.8C</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>16.8C</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16.8C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.8C</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1008.5 mbar (1.4)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5 m/s SSE (151)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>176 W/m2</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>23.8C</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>-0.001</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>15:05</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>17.3C</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>17.2C</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>17.3C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.4C</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1008.5 mbar (1.4)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1 m/s S (173)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>166 W/m2</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>23.7C</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>-0.001</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>15:10</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>18.0C</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>17.9C</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>18.0C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.3C</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1008.5 mbar (1.4)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1 m/s SSE (168)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>505 W/m2</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>23.7C</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>-0.001</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>18.4C</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>18.3C</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>18.4C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.3C</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1008.6 mbar (1.4)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0 m/s SE (143)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>654 W/m2</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>23.7C</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>-0.001</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>18.7C</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>18.6C</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>18.7C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.3C</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1008.5 mbar (1.4)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3 m/s NW (309)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>421 W/m2</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>23.7C</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>-0.001</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>15:25</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>18.2C</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>18.1C</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>18.2C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.1C</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1008.6 mbar (1.3)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4 m/s SE (136)</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>215 W/m2</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>23.6C</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>-0.001</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>18.2C</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>18.0C</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>18.2C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.8C</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1008.6 mbar (1.4)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0 m/s SE (134)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>141 W/m2</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>23.6C</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>-0.001</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>15:35</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>17.6C</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>17.4C</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>17.6C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.2C</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1008.7 mbar (1.3)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7 m/s WSW (249)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>80 W/m2</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>23.6C</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>-0.001</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>15:40</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17.3C</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>17.1C</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17.3C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.5C</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1008.7 mbar (1.3)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6 m/s SE (130)</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>248 W/m2</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>23.5C</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>-0.001</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>17.9C</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>17.8C</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>17.9C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.0C</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1008.7 mbar (1.3)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7 m/s SE (145)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>221 W/m2</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>23.6C</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>-0.001</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>18.5C</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>18.3C</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>18.5C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.5C</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1008.7 mbar (1.3)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0 m/s SE (140)</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>424 W/m2</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>23.5C</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>-0.001</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>15:55</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ilm.xlsx
+++ b/ilm.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:Q3"/>
@@ -2214,6 +2214,1746 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>19.2C</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>19.0C</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>19.2C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.9C</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1008.7 mbar (1.2)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8 m/s ESE (116)</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>531 W/m2</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>23.6C</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>16:05</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>19.7C</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>19.5C</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>19.7C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.2C</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1008.8 mbar (1.4)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8 m/s S (169)</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>532 W/m2</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>23.6C</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>16:10</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>19.7C</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>19.5C</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>19.7C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.2C</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1008.7 mbar (1.2)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8 m/s SSE (168)</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>489 W/m2</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>23.6C</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>19.6C</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>19.5C</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>19.6C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.3C</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1008.7 mbar (1.1)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5 m/s SE (134)</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>140 W/m2</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>23.6C</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>19.3C</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>19.2C</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>19.3C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.7C</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1008.7 mbar (1.1)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8 m/s SSE (152)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>435 W/m2</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>23.6C</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>16:25</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>19.3C</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>19.1C</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>19.3C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.8C</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1008.7 mbar (1.1)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8 m/s SSE (167)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>137 W/m2</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>23.6C</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>18.8C</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>18.7C</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>18.8C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.2C</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1008.7 mbar (0.9)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3 m/s ESE (106)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>124 W/m2</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>23.6C</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>16:35</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>18.3C</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>18.2C</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>18.3C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.7C</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1008.7 mbar (0.7)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6 m/s SE (127)</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>247 W/m2</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>23.6C</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>18.7C</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>18.5C</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>18.7C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.3C</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1008.8 mbar (0.7)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6 m/s SSE (157)</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>439 W/m2</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>23.6C</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>19.4C</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>19.2C</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>19.4C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.8C</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1008.9 mbar (0.8)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4 m/s SW (221)</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>619 W/m2</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>23.6C</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20.1C</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>19.9C</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>20.1C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.4C</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1008.8 mbar (0.7)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.3 m/s SE (144)</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>569 W/m2</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>23.7C</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>16:55</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>20.1C</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>19.9C</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>20.1C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.7C</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1008.8 mbar (0.6)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8 m/s S (182)</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>267 W/m2</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>23.7C</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>18.7C</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>18.5C</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>18.7C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.2C</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1008.8 mbar (0.4)</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3 m/s ESE (116)</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>155 W/m2</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>23.7C</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>18.5C</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>18.3C</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>18.5C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.3C</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1008.9 mbar (0.4)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7 m/s SW (217)</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>175 W/m2</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>23.7C</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>18.4C</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>18.1C</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>18.4C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.7C</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1009.0 mbar (0.5)</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.2 m/s SSE (156)</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>234 W/m2</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>23.7C</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>18.9C</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>18.5C</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>18.9C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.4C</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1008.9 mbar (0.4)</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.0 m/s SE (144)</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>520 W/m2</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>23.7C</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>19.8C</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>19.5C</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>19.8C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12.9C</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1008.9 mbar (0.6)</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7 m/s SSW (198)</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>471 W/m2</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>23.7C</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>20.2C</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>20.0C</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>20.2C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>13.4C</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1008.9 mbar (0.5)</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6 m/s SE (131)</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>508 W/m2</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>23.8C</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20.3C</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>20.0C</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>20.3C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13.2C</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1008.9 mbar (0.4)</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7 m/s SSE (160)</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>463 W/m2</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>23.8C</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20.3C</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>19.9C</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>20.3C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12.5C</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>61%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1009.0 mbar (0.5)</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.1 m/s NNE (20)</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>317 W/m2</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>23.9C</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ilm.xlsx
+++ b/ilm.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:T98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:Q3"/>
@@ -3954,6 +3954,5052 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>19.3C</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>19.0C</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>19.3C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12.6C</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1009.1 mbar (0.6)</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7 m/s SE (128)</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>321 W/m2</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>23.9C</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>19.3C</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>19.0C</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>19.3C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.8C</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1009.0 mbar (0.6)</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5 m/s ESE (114)</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>472 W/m2</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>23.9C</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>17:55</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>19.7C</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>19.3C</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>19.7C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12.4C</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1009.0 mbar (0.6)</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1.1 m/s SSE (147)</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>394 W/m2</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>23.9C</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>0.178</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>19.6C</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>19.2C</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>19.6C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.9C</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>61%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1009.1 mbar (0.6)</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.7 m/s SE (124)</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>205 W/m2</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>24.0C</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>0.178</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>18:05</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>19.2C</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>18.8C</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>19.2C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.8C</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>62%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1009.3 mbar (0.8)</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.8 m/s SSE (149)</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>406 W/m2</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>24.0C</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>0.178</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>19.7C</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>19.3C</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>19.7C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>12.2C</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>62%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1009.1 mbar (0.6)</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.9 m/s SSE (158)</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>375 W/m2</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>24.0C</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>0.178</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>18:15</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>19.8C</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>19.4C</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>19.8C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>12.2C</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>62%</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1009.3 mbar (0.7)</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1.0 m/s SSE (159)</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>387 W/m2</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>24.1C</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>0.178</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>18:20</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>19.9C</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>19.5C</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>19.9C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>12.5C</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>62%</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1009.3 mbar (0.8)</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5 m/s ESE (110)</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>345 W/m2</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>24.1C</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>0.178</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>18:25</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>19.9C</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>19.6C</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>19.9C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>12.3C</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>62%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1009.2 mbar (0.6)</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1.1 m/s SSE (148)</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>314 W/m2</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>24.1C</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>0.178</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>19.6C</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>19.2C</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>19.6C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>12.0C</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>61%</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1009.3 mbar (0.7)</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.8 m/s SSE (154)</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>297 W/m2</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>24.1C</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>0.178</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>18:35</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>19.4C</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>19.1C</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>19.4C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>12.1C</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1009.4 mbar (0.7)</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.8 m/s SE (134)</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>263 W/m2</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>24.2C</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>0.178</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>19.2C</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>18.7C</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>19.2C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>11.6C</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>62%</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1009.4 mbar (0.7)</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.6 m/s E (82)</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>213 W/m2</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>24.2C</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>0.178</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>19.0C</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>18.7C</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>19.0C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>12.1C</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1009.2 mbar (0.6)</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.6 m/s ESE (119)</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>158 W/m2</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>24.2C</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>0.178</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>18:50</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>18.6C</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>18.2C</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>18.6C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12.0C</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1009.4 mbar (0.7)</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4 m/s SE (134)</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>52 W/m2</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>24.2C</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>0.178</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>18:55</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>18.6C</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>18.2C</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>18.6C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>11.9C</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1009.3 mbar (0.6)</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4 m/s S (176)</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>51 W/m2</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>24.3C</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>0.194</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>18.3C</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>18.0C</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>18.3C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>12.3C</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1009.4 mbar (0.7)</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.5 m/s SE (126)</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>70 W/m2</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>24.3C</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>0.194</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>18.3C</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>17.9C</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>18.3C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>12.1C</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1009.4 mbar (0.6)</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.6 m/s NNE (32)</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>85 W/m2</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>24.3C</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>0.194</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>18.1C</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>17.7C</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>18.1C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>11.7C</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1009.5 mbar (0.8)</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1.1 m/s SE (130)</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>91 W/m2</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>24.3C</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>0.194</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>18.1C</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>17.8C</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>18.1C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>12.2C</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1009.5 mbar (0.7)</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2 m/s SE (126)</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>112 W/m2</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>24.3C</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>0.194</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>18.1C</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>17.7C</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>18.1C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>12.3C</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>69%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1009.5 mbar (0.8)</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2 m/s ESE (123)</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>98 W/m2</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>24.3C</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>0.194</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>18.1C</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>17.7C</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>18.1C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>12.1C</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1009.6 mbar (0.9)</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.7 m/s SE (143)</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>99 W/m2</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>24.3C</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>0.194</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>18.1C</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>17.8C</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>18.1C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>12.5C</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1009.6 mbar (0.8)</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2 m/s SE (126)</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>112 W/m2</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>24.2C</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>0.194</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>18.3C</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>18.0C</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>18.3C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>12.7C</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1009.6 mbar (0.8)</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.5 m/s S (178)</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>118 W/m2</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>24.2C</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>0.194</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>18.3C</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>17.9C</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>18.3C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>12.0C</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1009.6 mbar (0.8)</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.6 m/s SE (132)</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>109 W/m2</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>24.2C</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>0.194</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>18.3C</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>17.9C</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>18.3C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>12.3C</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1009.7 mbar (0.8)</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3 m/s SSE (147)</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>99 W/m2</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>24.2C</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>0.194</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>18.2C</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>17.9C</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>18.2C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>12.8C</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1009.7 mbar (0.9)</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3 m/s SE (124)</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>94 W/m2</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>24.2C</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>0.194</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>19:55</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>18.0C</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>17.8C</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>18.0C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>13.1C</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1009.7 mbar (1.0)</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1 m/s ESE (108)</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>95 W/m2</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>24.2C</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>10.285</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>18.1C</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>17.8C</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>18.1C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>12.8C</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1009.8 mbar (1.0)</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.4 m/s ESE (116)</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>78 W/m2</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>24.3C</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>10.285</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>18.0C</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>17.8C</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>18.0C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>13.0C</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1009.8 mbar (1.0)</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1 m/s SE (133)</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>80 W/m2</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>24.4C</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>10.285</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>18.0C</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>17.8C</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>18.0C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>13.1C</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1009.9 mbar (1.0)</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2 m/s ESE (109)</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>75 W/m2</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>24.5C</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>10.285</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>18.1C</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>17.9C</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>18.1C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>13.1C</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1010.0 mbar (1.0)</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1 m/s E (98)</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>63 W/m2</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>24.5C</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>10.285</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>20:20</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>18.1C</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>17.8C</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>18.1C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>12.9C</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1010.0 mbar (1.1)</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.4 m/s ESE (114)</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>62 W/m2</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>24.4C</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>10.285</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>20:25</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>17.9C</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>17.6C</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>17.9C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>13.1C</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>74%</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1010.0 mbar (1.1)</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.5 m/s SE (136)</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>59 W/m2</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>24.5C</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>10.285</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>17.8C</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>17.6C</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>17.8C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>12.9C</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1010.0 mbar (1.1)</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.9 m/s SSE (149)</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>42 W/m2</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>24.7C</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>10.285</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>20:35</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>17.7C</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>17.5C</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>17.7C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>13.5C</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1010.1 mbar (1.2)</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.3 m/s SE (140)</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>36 W/m2</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>24.7C</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>10.285</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>20:40</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>17.2C</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>17.0C</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>17.2C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>13.1C</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1010.1 mbar (1.1)</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.5 m/s SE (139)</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>35 W/m2</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>24.8C</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>10.285</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>20:45</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>17.3C</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>17.1C</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>17.3C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>13.3C</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>78%</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1010.0 mbar (0.8)</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.3 m/s SE (126)</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>33 W/m2</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>24.8C</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>10.285</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>20:50</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>17.1C</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>16.9C</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>17.1C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>13.2C</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>78%</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1010.1 mbar (1.1)</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1 m/s ESE (117)</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>32 W/m2</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>24.8C</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>10.285</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>20:55</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>17.0C</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>16.8C</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>17.0C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>13.2C</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>79%</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1010.1 mbar (1.0)</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.4 m/s SSW (193)</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>29 W/m2</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>24.9C</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>9.255</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>16.8C</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>16.6C</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>16.8C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>13.3C</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1010.1 mbar (1.0)</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1 m/s E (88)</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>27 W/m2</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>24.9C</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>9.255</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>21:05</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>16.8C</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>16.6C</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>16.8C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>13.4C</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1010.1 mbar (0.9)</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.3 m/s SSE (161)</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>25 W/m2</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>24.9C</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>9.255</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>21:10</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>16.7C</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>16.6C</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>16.7C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>13.6C</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1010.3 mbar (1.2)</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0 m/s N/A (   N/A)</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>25 W/m2</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>24.9C</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>9.255</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>16.5C</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>16.4C</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>16.5C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>13.3C</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>81%</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1010.2 mbar (0.9)</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.5 m/s SSE (162)</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>25 W/m2</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>24.8C</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>9.255</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>16.7C</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>16.6C</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>16.7C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>13.6C</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1010.2 mbar (0.9)</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.3 m/s ESE (121)</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>24 W/m2</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>24.8C</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>9.255</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>21:25</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>16.7C</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>16.5C</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>16.7C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>13.6C</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1010.3 mbar (1.1)</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0 m/s SE (131)</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>21 W/m2</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>25.0C</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>9.255</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>16.5C</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>16.3C</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>16.5C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>13.6C</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>83%</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1010.2 mbar (0.9)</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0 m/s ESE (118)</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>19 W/m2</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>25.1C</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>9.255</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>21:35</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>16.4C</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>16.3C</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>16.4C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>13.5C</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>83%</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1010.3 mbar (0.9)</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2 m/s SE (126)</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>16 W/m2</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>25.1C</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>9.255</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>21:40</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>16.3C</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>16.2C</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>16.3C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>13.6C</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>84%</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1010.3 mbar (1.0)</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0 m/s ESE (118)</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>14 W/m2</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>25.2C</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>9.255</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>21:45</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>16.2C</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>16.1C</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>16.2C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>13.5C</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>84%</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1010.4 mbar (1.1)</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0 m/s N/A (   N/A)</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>14 W/m2</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>25.2C</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>9.255</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>21:50</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>16.2C</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>16.1C</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>16.2C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>13.6C</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1010.5 mbar (1.1)</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0 m/s N/A (   N/A)</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>12 W/m2</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>25.3C</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>9.255</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>21:55</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>16.0C</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>15.9C</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>16.0C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>13.6C</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1010.6 mbar (1.2)</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0 m/s N/A (   N/A)</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>8 W/m2</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>25.3C</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>15.9C</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>15.8C</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>15.9C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>13.5C</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>86%</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1010.4 mbar (1.0)</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1 m/s SSE (156)</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>7 W/m2</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>25.3C</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>22:05</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>16.0C</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>15.9C</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>16.0C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>13.6C</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>86%</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1010.4 mbar (1.1)</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0 m/s N/A (   N/A)</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>8 W/m2</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>25.2C</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>22:10</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>16.0C</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>15.9C</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>16.0C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>13.7C</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>86%</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1010.4 mbar (0.9)</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1 m/s SE (128)</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>7 W/m2</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>25.2C</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>22:15</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>15.9C</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>15.8C</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>15.9C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>13.7C</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87%</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1010.4 mbar (0.9)</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0 m/s N/A (   N/A)</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>6 W/m2</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>25.3C</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>22:20</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>15.6C</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>15.5C</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>15.6C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>13.7C</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>88%</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1010.4 mbar (0.9)</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0 m/s N/A (   N/A)</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>4 W/m2</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>25.3C</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>22:25</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>15.3C</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>15.3C</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>15.3C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>13.5C</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1010.6 mbar (1.0)</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0 m/s N/A (   N/A)</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>3 W/m2</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>25.3C</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>15.1C</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>15.0C</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>15.1C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>13.4C</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1010.5 mbar (1.0)</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0 m/s N/A (   N/A)</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>4.8 mm</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>1 W/m2</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>25.2C</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>22:35</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>06-07</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ilm.xlsx
+++ b/ilm.xlsx
@@ -1,119 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanel\Desktop\UT-1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F9D60D-A594-4382-AC6F-75E811624C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11423" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Outside Temperature</t>
-  </si>
-  <si>
-    <t>Heat Index</t>
-  </si>
-  <si>
-    <t>Wind Chill</t>
-  </si>
-  <si>
-    <t>Dew Point</t>
-  </si>
-  <si>
-    <t>Humidity</t>
-  </si>
-  <si>
-    <t>Barometer</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>Rain Rate</t>
-  </si>
-  <si>
-    <t>Rain Today</t>
-  </si>
-  <si>
-    <t>UV Index</t>
-  </si>
-  <si>
-    <t>ET</t>
-  </si>
-  <si>
-    <t>Radiation</t>
-  </si>
-  <si>
-    <t>Inside Temperature</t>
-  </si>
-  <si>
-    <t>Inside Humidity</t>
-  </si>
-  <si>
-    <t>Elektrihind</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -147,42 +86,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -448,136 +446,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.265625" customWidth="1"/>
-    <col min="2" max="2" width="10.86328125" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" customWidth="1"/>
-    <col min="4" max="4" width="9.53125" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.796875" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.86328125" customWidth="1"/>
-    <col min="15" max="15" width="9.73046875" customWidth="1"/>
+    <col width="20.265625" customWidth="1" min="1" max="1"/>
+    <col width="10.86328125" customWidth="1" min="2" max="2"/>
+    <col width="10.73046875" customWidth="1" min="3" max="3"/>
+    <col width="9.53125" customWidth="1" min="4" max="4"/>
+    <col width="12.33203125" customWidth="1" min="6" max="6"/>
+    <col width="12.3984375" customWidth="1" min="7" max="7"/>
+    <col width="17.6640625" customWidth="1" min="8" max="8"/>
+    <col width="18.796875" customWidth="1" min="9" max="9"/>
+    <col width="19.33203125" customWidth="1" min="13" max="13"/>
+    <col width="13.86328125" customWidth="1" min="14" max="14"/>
+    <col width="9.73046875" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="6"/>
-      <c r="T1" s="7"/>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Outside Temperature</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Heat Index</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Wind Chill</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Dew Point</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Humidity</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Barometer</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>Rain Rate</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>Rain Today</t>
+        </is>
+      </c>
+      <c r="J1" s="4" t="inlineStr">
+        <is>
+          <t>UV Index</t>
+        </is>
+      </c>
+      <c r="K1" s="4" t="inlineStr">
+        <is>
+          <t>ET</t>
+        </is>
+      </c>
+      <c r="L1" s="4" t="inlineStr">
+        <is>
+          <t>Radiation</t>
+        </is>
+      </c>
+      <c r="M1" s="4" t="inlineStr">
+        <is>
+          <t>Inside Temperature</t>
+        </is>
+      </c>
+      <c r="N1" s="4" t="inlineStr">
+        <is>
+          <t>Inside Humidity</t>
+        </is>
+      </c>
+      <c r="O1" s="5" t="inlineStr">
+        <is>
+          <t>Elektrihind</t>
+        </is>
+      </c>
+      <c r="P1" s="4" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="Q1" s="4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="R1" s="6" t="n"/>
+      <c r="T1" s="7" t="n"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>-3.8C</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>-3.8C</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>-3.8C</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>-3.9C</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>992.8 mbar (0.9)</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>0.1 m/s E (82)</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>0 W/m2</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>22.5C</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>15.199</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>18:24</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>02-01</t>
+        </is>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+    <row r="3">
+      <c r="A3" s="3" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
+      <c r="M3" s="3" t="n"/>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="3" t="n"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+    <row r="6">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ilm.xlsx
+++ b/ilm.xlsx
@@ -649,22 +649,178 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="n"/>
-      <c r="L3" s="3" t="n"/>
-      <c r="M3" s="3" t="n"/>
-      <c r="N3" s="3" t="n"/>
-      <c r="O3" s="3" t="n"/>
-      <c r="P3" s="3" t="n"/>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>-3.8C</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>-3.8C</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>-3.8C</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>-3.9C</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>992.8 mbar (0.9)</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>0.1 m/s E (82)</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>0 W/m2</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>22.5C</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="inlineStr">
+        <is>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="inlineStr">
+        <is>
+          <t>15.199</t>
+        </is>
+      </c>
+      <c r="P3" s="3" t="inlineStr">
+        <is>
+          <t>18:25</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>02-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>-3.7C</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-3.7C</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-3.7C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-3.9C</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>992.7 mbar (0.7)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0 m/s N/A (   N/A)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.0 mm/h</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.0 mm</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0 W/m2</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>22.5C</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>15.199</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>02-01</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n"/>
